--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Dlk1-Notch1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Dlk1-Notch1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Notch1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M1</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>10.1578900221194</v>
+        <v>0.777907</v>
       </c>
       <c r="H2">
-        <v>10.1578900221194</v>
+        <v>2.333721</v>
       </c>
       <c r="I2">
-        <v>0.9859462042691834</v>
+        <v>0.06867740520458042</v>
       </c>
       <c r="J2">
-        <v>0.9859462042691834</v>
+        <v>0.06867740520458043</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>59.5518718847718</v>
+        <v>60.14337933333334</v>
       </c>
       <c r="N2">
-        <v>59.5518718847718</v>
+        <v>180.430138</v>
       </c>
       <c r="O2">
-        <v>0.5442012925791203</v>
+        <v>0.5373443142606099</v>
       </c>
       <c r="P2">
-        <v>0.5442012925791203</v>
+        <v>0.5373443142606098</v>
       </c>
       <c r="Q2">
-        <v>604.9213652168563</v>
+        <v>46.78595578705534</v>
       </c>
       <c r="R2">
-        <v>604.9213652168563</v>
+        <v>421.073602083498</v>
       </c>
       <c r="S2">
-        <v>0.536553198776767</v>
+        <v>0.03690341320485331</v>
       </c>
       <c r="T2">
-        <v>0.536553198776767</v>
+        <v>0.0369034132048533</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>10.1578900221194</v>
+        <v>0.777907</v>
       </c>
       <c r="H3">
-        <v>10.1578900221194</v>
+        <v>2.333721</v>
       </c>
       <c r="I3">
-        <v>0.9859462042691834</v>
+        <v>0.06867740520458042</v>
       </c>
       <c r="J3">
-        <v>0.9859462042691834</v>
+        <v>0.06867740520458043</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.8601906248227</v>
+        <v>11.05007466666667</v>
       </c>
       <c r="N3">
-        <v>10.8601906248227</v>
+        <v>33.150224</v>
       </c>
       <c r="O3">
-        <v>0.09924339216607321</v>
+        <v>0.09872565958390839</v>
       </c>
       <c r="P3">
-        <v>0.09924339216607321</v>
+        <v>0.09872565958390837</v>
       </c>
       <c r="Q3">
-        <v>110.3166219862012</v>
+        <v>8.595930433722668</v>
       </c>
       <c r="R3">
-        <v>110.3166219862012</v>
+        <v>77.36337390350401</v>
       </c>
       <c r="S3">
-        <v>0.09784864580493789</v>
+        <v>0.006780222127333545</v>
       </c>
       <c r="T3">
-        <v>0.09784864580493789</v>
+        <v>0.006780222127333545</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>10.1578900221194</v>
+        <v>0.777907</v>
       </c>
       <c r="H4">
-        <v>10.1578900221194</v>
+        <v>2.333721</v>
       </c>
       <c r="I4">
-        <v>0.9859462042691834</v>
+        <v>0.06867740520458042</v>
       </c>
       <c r="J4">
-        <v>0.9859462042691834</v>
+        <v>0.06867740520458043</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.0361842023177</v>
+        <v>12.25483666666667</v>
       </c>
       <c r="N4">
-        <v>12.0361842023177</v>
+        <v>36.76451</v>
       </c>
       <c r="O4">
-        <v>0.1099899431086839</v>
+        <v>0.1094894712937444</v>
       </c>
       <c r="P4">
-        <v>0.1099899431086839</v>
+        <v>0.1094894712937444</v>
       </c>
       <c r="Q4">
-        <v>122.2622354131141</v>
+        <v>9.533123226856668</v>
       </c>
       <c r="R4">
-        <v>122.2622354131141</v>
+        <v>85.79810904171001</v>
       </c>
       <c r="S4">
-        <v>0.1084441669157903</v>
+        <v>0.007519452785675759</v>
       </c>
       <c r="T4">
-        <v>0.1084441669157903</v>
+        <v>0.007519452785675758</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>10.1578900221194</v>
+        <v>0.777907</v>
       </c>
       <c r="H5">
-        <v>10.1578900221194</v>
+        <v>2.333721</v>
       </c>
       <c r="I5">
-        <v>0.9859462042691834</v>
+        <v>0.06867740520458042</v>
       </c>
       <c r="J5">
-        <v>0.9859462042691834</v>
+        <v>0.06867740520458043</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.9306142311359</v>
+        <v>13.120599</v>
       </c>
       <c r="N5">
-        <v>12.9306142311359</v>
+        <v>39.361797</v>
       </c>
       <c r="O5">
-        <v>0.1181634893365215</v>
+        <v>0.1172245282937728</v>
       </c>
       <c r="P5">
-        <v>0.1181634893365215</v>
+        <v>0.1172245282937728</v>
       </c>
       <c r="Q5">
-        <v>131.3477572783305</v>
+        <v>10.206605806293</v>
       </c>
       <c r="R5">
-        <v>131.3477572783305</v>
+        <v>91.85945225663701</v>
       </c>
       <c r="S5">
-        <v>0.1165028437945455</v>
+        <v>0.008050676429547238</v>
       </c>
       <c r="T5">
-        <v>0.1165028437945455</v>
+        <v>0.008050676429547238</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>10.1578900221194</v>
+        <v>0.777907</v>
       </c>
       <c r="H6">
-        <v>10.1578900221194</v>
+        <v>2.333721</v>
       </c>
       <c r="I6">
-        <v>0.9859462042691834</v>
+        <v>0.06867740520458042</v>
       </c>
       <c r="J6">
-        <v>0.9859462042691834</v>
+        <v>0.06867740520458043</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.0510002072976</v>
+        <v>15.358189</v>
       </c>
       <c r="N6">
-        <v>14.0510002072976</v>
+        <v>46.074567</v>
       </c>
       <c r="O6">
-        <v>0.128401882809601</v>
+        <v>0.1372160265679646</v>
       </c>
       <c r="P6">
-        <v>0.128401882809601</v>
+        <v>0.1372160265679646</v>
       </c>
       <c r="Q6">
-        <v>142.7285148065059</v>
+        <v>11.947242730423</v>
       </c>
       <c r="R6">
-        <v>142.7285148065059</v>
+        <v>107.525184573807</v>
       </c>
       <c r="S6">
-        <v>0.1265973489771426</v>
+        <v>0.009423640657170579</v>
       </c>
       <c r="T6">
-        <v>0.1265973489771426</v>
+        <v>0.009423640657170579</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.144791785605363</v>
+        <v>10.322611</v>
       </c>
       <c r="H7">
-        <v>0.144791785605363</v>
+        <v>30.967833</v>
       </c>
       <c r="I7">
-        <v>0.01405379573081649</v>
+        <v>0.911330195532704</v>
       </c>
       <c r="J7">
-        <v>0.01405379573081649</v>
+        <v>0.911330195532704</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>59.5518718847718</v>
+        <v>60.14337933333334</v>
       </c>
       <c r="N7">
-        <v>59.5518718847718</v>
+        <v>180.430138</v>
       </c>
       <c r="O7">
-        <v>0.5442012925791203</v>
+        <v>0.5373443142606099</v>
       </c>
       <c r="P7">
-        <v>0.5442012925791203</v>
+        <v>0.5373443142606098</v>
       </c>
       <c r="Q7">
-        <v>8.622621866337923</v>
+        <v>620.8367090834394</v>
       </c>
       <c r="R7">
-        <v>8.622621866337923</v>
+        <v>5587.530381750954</v>
       </c>
       <c r="S7">
-        <v>0.007648093802353257</v>
+        <v>0.4896980989835084</v>
       </c>
       <c r="T7">
-        <v>0.007648093802353257</v>
+        <v>0.4896980989835083</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.144791785605363</v>
+        <v>10.322611</v>
       </c>
       <c r="H8">
-        <v>0.144791785605363</v>
+        <v>30.967833</v>
       </c>
       <c r="I8">
-        <v>0.01405379573081649</v>
+        <v>0.911330195532704</v>
       </c>
       <c r="J8">
-        <v>0.01405379573081649</v>
+        <v>0.911330195532704</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.8601906248227</v>
+        <v>11.05007466666667</v>
       </c>
       <c r="N8">
-        <v>10.8601906248227</v>
+        <v>33.150224</v>
       </c>
       <c r="O8">
-        <v>0.09924339216607321</v>
+        <v>0.09872565958390839</v>
       </c>
       <c r="P8">
-        <v>0.09924339216607321</v>
+        <v>0.09872565958390837</v>
       </c>
       <c r="Q8">
-        <v>1.572466392582701</v>
+        <v>114.0656223049547</v>
       </c>
       <c r="R8">
-        <v>1.572466392582701</v>
+        <v>1026.590600744592</v>
       </c>
       <c r="S8">
-        <v>0.001394746361135306</v>
+        <v>0.0899716746526984</v>
       </c>
       <c r="T8">
-        <v>0.001394746361135306</v>
+        <v>0.0899716746526984</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.144791785605363</v>
+        <v>10.322611</v>
       </c>
       <c r="H9">
-        <v>0.144791785605363</v>
+        <v>30.967833</v>
       </c>
       <c r="I9">
-        <v>0.01405379573081649</v>
+        <v>0.911330195532704</v>
       </c>
       <c r="J9">
-        <v>0.01405379573081649</v>
+        <v>0.911330195532704</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.0361842023177</v>
+        <v>12.25483666666667</v>
       </c>
       <c r="N9">
-        <v>12.0361842023177</v>
+        <v>36.76451</v>
       </c>
       <c r="O9">
-        <v>0.1099899431086839</v>
+        <v>0.1094894712937444</v>
       </c>
       <c r="P9">
-        <v>0.1099899431086839</v>
+        <v>0.1094894712937444</v>
       </c>
       <c r="Q9">
-        <v>1.742740602528641</v>
+        <v>126.5019117785367</v>
       </c>
       <c r="R9">
-        <v>1.742740602528641</v>
+        <v>1138.51720600683</v>
       </c>
       <c r="S9">
-        <v>0.00154577619289357</v>
+        <v>0.09978106128290044</v>
       </c>
       <c r="T9">
-        <v>0.00154577619289357</v>
+        <v>0.09978106128290043</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.144791785605363</v>
+        <v>10.322611</v>
       </c>
       <c r="H10">
-        <v>0.144791785605363</v>
+        <v>30.967833</v>
       </c>
       <c r="I10">
-        <v>0.01405379573081649</v>
+        <v>0.911330195532704</v>
       </c>
       <c r="J10">
-        <v>0.01405379573081649</v>
+        <v>0.911330195532704</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.9306142311359</v>
+        <v>13.120599</v>
       </c>
       <c r="N10">
-        <v>12.9306142311359</v>
+        <v>39.361797</v>
       </c>
       <c r="O10">
-        <v>0.1181634893365215</v>
+        <v>0.1172245282937728</v>
       </c>
       <c r="P10">
-        <v>0.1181634893365215</v>
+        <v>0.1172245282937728</v>
       </c>
       <c r="Q10">
-        <v>1.872246723500285</v>
+        <v>135.438839563989</v>
       </c>
       <c r="R10">
-        <v>1.872246723500285</v>
+        <v>1218.949556075901</v>
       </c>
       <c r="S10">
-        <v>0.001660645541975985</v>
+        <v>0.106830252291193</v>
       </c>
       <c r="T10">
-        <v>0.001660645541975985</v>
+        <v>0.1068302522911929</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,371 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>10.322611</v>
+      </c>
+      <c r="H11">
+        <v>30.967833</v>
+      </c>
+      <c r="I11">
+        <v>0.911330195532704</v>
+      </c>
+      <c r="J11">
+        <v>0.911330195532704</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>15.358189</v>
+      </c>
+      <c r="N11">
+        <v>46.074567</v>
+      </c>
+      <c r="O11">
+        <v>0.1372160265679646</v>
+      </c>
+      <c r="P11">
+        <v>0.1372160265679646</v>
+      </c>
+      <c r="Q11">
+        <v>158.536610711479</v>
+      </c>
+      <c r="R11">
+        <v>1426.829496403311</v>
+      </c>
+      <c r="S11">
+        <v>0.1250491083224039</v>
+      </c>
+      <c r="T11">
+        <v>0.1250491083224039</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.2264533333333334</v>
+      </c>
+      <c r="H12">
+        <v>0.6793600000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.01999239926271553</v>
+      </c>
+      <c r="J12">
+        <v>0.01999239926271554</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>60.14337933333334</v>
+      </c>
+      <c r="N12">
+        <v>180.430138</v>
+      </c>
+      <c r="O12">
+        <v>0.5373443142606099</v>
+      </c>
+      <c r="P12">
+        <v>0.5373443142606098</v>
+      </c>
+      <c r="Q12">
+        <v>13.61966872796445</v>
+      </c>
+      <c r="R12">
+        <v>122.57701855168</v>
+      </c>
+      <c r="S12">
+        <v>0.0107428020722482</v>
+      </c>
+      <c r="T12">
+        <v>0.0107428020722482</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.144791785605363</v>
-      </c>
-      <c r="H11">
-        <v>0.144791785605363</v>
-      </c>
-      <c r="I11">
-        <v>0.01405379573081649</v>
-      </c>
-      <c r="J11">
-        <v>0.01405379573081649</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>14.0510002072976</v>
-      </c>
-      <c r="N11">
-        <v>14.0510002072976</v>
-      </c>
-      <c r="O11">
-        <v>0.128401882809601</v>
-      </c>
-      <c r="P11">
-        <v>0.128401882809601</v>
-      </c>
-      <c r="Q11">
-        <v>2.034469409555945</v>
-      </c>
-      <c r="R11">
-        <v>2.034469409555945</v>
-      </c>
-      <c r="S11">
-        <v>0.00180453383245837</v>
-      </c>
-      <c r="T11">
-        <v>0.00180453383245837</v>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.2264533333333334</v>
+      </c>
+      <c r="H13">
+        <v>0.6793600000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.01999239926271553</v>
+      </c>
+      <c r="J13">
+        <v>0.01999239926271554</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>11.05007466666667</v>
+      </c>
+      <c r="N13">
+        <v>33.150224</v>
+      </c>
+      <c r="O13">
+        <v>0.09872565958390839</v>
+      </c>
+      <c r="P13">
+        <v>0.09872565958390837</v>
+      </c>
+      <c r="Q13">
+        <v>2.502326241848889</v>
+      </c>
+      <c r="R13">
+        <v>22.52093617664</v>
+      </c>
+      <c r="S13">
+        <v>0.001973762803876435</v>
+      </c>
+      <c r="T13">
+        <v>0.001973762803876435</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.2264533333333334</v>
+      </c>
+      <c r="H14">
+        <v>0.6793600000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.01999239926271553</v>
+      </c>
+      <c r="J14">
+        <v>0.01999239926271554</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>12.25483666666667</v>
+      </c>
+      <c r="N14">
+        <v>36.76451</v>
+      </c>
+      <c r="O14">
+        <v>0.1094894712937444</v>
+      </c>
+      <c r="P14">
+        <v>0.1094894712937444</v>
+      </c>
+      <c r="Q14">
+        <v>2.775148612622223</v>
+      </c>
+      <c r="R14">
+        <v>24.9763375136</v>
+      </c>
+      <c r="S14">
+        <v>0.002188957225168169</v>
+      </c>
+      <c r="T14">
+        <v>0.002188957225168168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.2264533333333334</v>
+      </c>
+      <c r="H15">
+        <v>0.6793600000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.01999239926271553</v>
+      </c>
+      <c r="J15">
+        <v>0.01999239926271554</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>13.120599</v>
+      </c>
+      <c r="N15">
+        <v>39.361797</v>
+      </c>
+      <c r="O15">
+        <v>0.1172245282937728</v>
+      </c>
+      <c r="P15">
+        <v>0.1172245282937728</v>
+      </c>
+      <c r="Q15">
+        <v>2.971203378880001</v>
+      </c>
+      <c r="R15">
+        <v>26.74083040992</v>
+      </c>
+      <c r="S15">
+        <v>0.0023435995730326</v>
+      </c>
+      <c r="T15">
+        <v>0.0023435995730326</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.2264533333333334</v>
+      </c>
+      <c r="H16">
+        <v>0.6793600000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.01999239926271553</v>
+      </c>
+      <c r="J16">
+        <v>0.01999239926271554</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>15.358189</v>
+      </c>
+      <c r="N16">
+        <v>46.074567</v>
+      </c>
+      <c r="O16">
+        <v>0.1372160265679646</v>
+      </c>
+      <c r="P16">
+        <v>0.1372160265679646</v>
+      </c>
+      <c r="Q16">
+        <v>3.477913093013334</v>
+      </c>
+      <c r="R16">
+        <v>31.30121783712</v>
+      </c>
+      <c r="S16">
+        <v>0.002743277588390131</v>
+      </c>
+      <c r="T16">
+        <v>0.002743277588390131</v>
       </c>
     </row>
   </sheetData>
